--- a/P1/software/ACAP_P1.xlsx
+++ b/P1/software/ACAP_P1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moshi/acap/P1/software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890A60E2-199F-3845-B73F-691FD8DDFF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4D33CB-7180-8644-94B1-AF0494EF987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39200" yWindow="2460" windowWidth="29580" windowHeight="18780" xr2:uid="{B6E3DBA8-F82F-2747-9BC5-CD12CB39C2D6}"/>
+    <workbookView xWindow="39440" yWindow="2360" windowWidth="29580" windowHeight="18780" xr2:uid="{B6E3DBA8-F82F-2747-9BC5-CD12CB39C2D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
   <definedNames>
     <definedName name="pi_exec" localSheetId="0">Sheet1!$B$2:$H$12</definedName>
     <definedName name="ppi" localSheetId="0">Sheet1!$B$16:$I$22</definedName>
+    <definedName name="ppi_w_fusion" localSheetId="0">Sheet1!$B$59:$L$65</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,11 +67,28 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" xr16:uid="{B94B7EAF-BFB1-654C-92A5-4E4EEFD3BBDC}" name="ppi_w_fusion" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/moshi/acap/P1/software/apendice/ppi_w_fusion.csv" thousands="'" tab="0" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>num_iter</t>
   </si>
@@ -100,6 +118,33 @@
   </si>
   <si>
     <t>num_procs</t>
+  </si>
+  <si>
+    <t>aceleracion</t>
+  </si>
+  <si>
+    <t>speedup leibniz</t>
+  </si>
+  <si>
+    <t>speedup rectangles</t>
+  </si>
+  <si>
+    <t>ppi_w_fusion.csv</t>
+  </si>
+  <si>
+    <t>fusion_cput</t>
+  </si>
+  <si>
+    <t>fusion_wallt</t>
+  </si>
+  <si>
+    <t>fusion_pi</t>
+  </si>
+  <si>
+    <t>suma_cput</t>
+  </si>
+  <si>
+    <t>suma_wallt</t>
   </si>
 </sst>
 </file>
@@ -1598,6 +1643,1052 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>aceleración</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> / número de procesos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup leibniz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9236337607036069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.854418965464975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7684433274401927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5580099580395306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3553609589270996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5742-424C-A77C-D76127D794F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup rectangles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9570594285632414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9665093973672274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9329166042249457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7244805877382978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6186864638299934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5742-424C-A77C-D76127D794F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="541396320"/>
+        <c:axId val="566863760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="541396320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566863760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="566863760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541396320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>segundos / número de procesos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>suma_cput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$68:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>39.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92CC-4743-83E2-45C5B5B18EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>suma_wallt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$68:$D$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>39.903345999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.118527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.674164999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.343098999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5887659999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1975759999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92CC-4743-83E2-45C5B5B18EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fusion_cput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$68:$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-92CC-4743-83E2-45C5B5B18EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fusion_wallt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$68:$F$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33.818994000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.995965999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.426679999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5810169999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1427509999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9860360000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-92CC-4743-83E2-45C5B5B18EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="105642336"/>
+        <c:axId val="366778480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="105642336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366778480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="366778480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="105642336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1665,6 +2756,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2169,6 +3340,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2711,16 +4888,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2745,6 +4922,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6085A209-7A54-D43D-C7D0-9C52607AA886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C23902-7016-3601-2DEB-3174AD81CAAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2753,10 +5002,14 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ppi_w_fusion" connectionId="3" xr16:uid="{4AB00F95-0784-E74A-85A2-58FE150EB970}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ppi" connectionId="2" xr16:uid="{D0CCFD6B-4B41-7147-8064-5D9DAB727D7A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pi_exec" connectionId="1" xr16:uid="{FE06C4E9-F141-E545-AA6D-2DD95BF7C4C6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -3057,22 +5310,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCC63F9-3E42-8249-B427-F56216F6BF96}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3364,7 +5620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>2147483647</v>
       </c>
@@ -3390,7 +5646,7 @@
         <v>3.1415929999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>2147483647</v>
       </c>
@@ -3416,7 +5672,7 @@
         <v>3.1415929999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>2147483647</v>
       </c>
@@ -3442,7 +5698,7 @@
         <v>3.1415929999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>2147483647</v>
       </c>
@@ -3468,7 +5724,7 @@
         <v>3.1415929999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>2147483647</v>
       </c>
@@ -3494,7 +5750,7 @@
         <v>3.1415929999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>2147483647</v>
       </c>
@@ -3518,6 +5774,508 @@
       </c>
       <c r="I22">
         <v>3.1415929999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f>C17</f>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f>$E$17/E17</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>$G$17/G17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f t="shared" ref="B27:B31" si="0">C18</f>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C31" si="1">$E$17/E18</f>
+        <v>1.9236337607036069</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D31" si="2">$G$17/G18</f>
+        <v>1.9570594285632414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>2.854418965464975</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>2.9665093973672274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>3.7684433274401927</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>3.9329166042249457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>4.5580099580395306</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>4.7244805877382978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>5.3553609589270996</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>5.6186864638299934</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>2147483647</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>17.23</v>
+      </c>
+      <c r="E60">
+        <v>17.228839000000001</v>
+      </c>
+      <c r="F60">
+        <v>22.68</v>
+      </c>
+      <c r="G60">
+        <v>22.674506999999998</v>
+      </c>
+      <c r="H60">
+        <v>33.82</v>
+      </c>
+      <c r="I60">
+        <v>33.818994000000004</v>
+      </c>
+      <c r="J60">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="K60">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="L60">
+        <v>3.1415929999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>2147483647</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="E61">
+        <v>8.7581480000000003</v>
+      </c>
+      <c r="F61">
+        <v>22.7</v>
+      </c>
+      <c r="G61">
+        <v>11.360379</v>
+      </c>
+      <c r="H61">
+        <v>33.96</v>
+      </c>
+      <c r="I61">
+        <v>16.995965999999999</v>
+      </c>
+      <c r="J61">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="K61">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="L61">
+        <v>3.1415929999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>2147483647</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>17.98</v>
+      </c>
+      <c r="E62">
+        <v>6.0121219999999997</v>
+      </c>
+      <c r="F62">
+        <v>22.91</v>
+      </c>
+      <c r="G62">
+        <v>7.6620429999999997</v>
+      </c>
+      <c r="H62">
+        <v>34.15</v>
+      </c>
+      <c r="I62">
+        <v>11.426679999999999</v>
+      </c>
+      <c r="J62">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="K62">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="L62">
+        <v>3.1415929999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>2147483647</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>18.32</v>
+      </c>
+      <c r="E63">
+        <v>4.5974329999999997</v>
+      </c>
+      <c r="F63">
+        <v>22.86</v>
+      </c>
+      <c r="G63">
+        <v>5.7456659999999999</v>
+      </c>
+      <c r="H63">
+        <v>34.11</v>
+      </c>
+      <c r="I63">
+        <v>8.5810169999999992</v>
+      </c>
+      <c r="J63">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="K63">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="L63">
+        <v>3.1415929999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>2147483647</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>18.86</v>
+      </c>
+      <c r="E64">
+        <v>3.8083619999999998</v>
+      </c>
+      <c r="F64">
+        <v>23.48</v>
+      </c>
+      <c r="G64">
+        <v>4.7804039999999999</v>
+      </c>
+      <c r="H64">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="I64">
+        <v>7.1427509999999996</v>
+      </c>
+      <c r="J64">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="K64">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="L64">
+        <v>3.1415929999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>2147483647</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>19.2</v>
+      </c>
+      <c r="E65">
+        <v>3.1954720000000001</v>
+      </c>
+      <c r="F65">
+        <v>23.95</v>
+      </c>
+      <c r="G65">
+        <v>4.0021040000000001</v>
+      </c>
+      <c r="H65">
+        <v>35.79</v>
+      </c>
+      <c r="I65">
+        <v>5.9860360000000004</v>
+      </c>
+      <c r="J65">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="K65">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="L65">
+        <v>3.1415929999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" t="str">
+        <f>C59</f>
+        <v>num_procs</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="str">
+        <f>H59</f>
+        <v>fusion_cput</v>
+      </c>
+      <c r="F67" t="str">
+        <f>I59</f>
+        <v>fusion_wallt</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <f t="shared" ref="B68:B73" si="3">C60</f>
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <f>D60+F60</f>
+        <v>39.909999999999997</v>
+      </c>
+      <c r="D68">
+        <f>E60+G60</f>
+        <v>39.903345999999999</v>
+      </c>
+      <c r="E68">
+        <f>H60</f>
+        <v>33.82</v>
+      </c>
+      <c r="F68">
+        <f>I60</f>
+        <v>33.818994000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:D73" si="4">D61+F61</f>
+        <v>40.21</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>20.118527</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:F73" si="5">H61</f>
+        <v>33.96</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>16.995965999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>40.89</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>13.674164999999999</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>34.15</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>11.426679999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>41.18</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>10.343098999999999</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>34.11</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>8.5810169999999992</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>42.34</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="4"/>
+        <v>8.5887659999999997</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>35.049999999999997</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>7.1427509999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>43.15</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="4"/>
+        <v>7.1975759999999998</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>35.79</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>5.9860360000000004</v>
       </c>
     </row>
   </sheetData>
